--- a/受控文档/05-需求分析/需求优先级/学生需求优先级打分.xlsx
+++ b/受控文档/05-需求分析/需求优先级/学生需求优先级打分.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="960" windowWidth="18396" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="8340" yWindow="960" windowWidth="18396" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="文档标识" sheetId="3" r:id="rId1"/>
     <sheet name="文档使用指南" sheetId="4" r:id="rId2"/>
     <sheet name="Web端打分表" sheetId="1" r:id="rId3"/>
-    <sheet name="App端打分表" sheetId="5" r:id="rId4"/>
+    <sheet name="APP端打分表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="220">
   <si>
     <t>用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -833,12 +833,20 @@
     <t>学生功能点打分表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>下载答疑室历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生能下载已经结束的答疑室历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -901,6 +909,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -916,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1093,13 +1108,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,12 +1191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1139,6 +1200,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,152 +1365,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1725,310 +1819,310 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="26"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="29"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="29"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="29"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="29"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="29"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="29"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="29"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="29"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="29"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="29"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="29"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="24"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="23"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="24"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="23"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19">
+      <c r="E28" s="25"/>
+      <c r="F28" s="26">
         <v>43471</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:I19"/>
-    <mergeCell ref="B20:I22"/>
-    <mergeCell ref="B23:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B3:I19"/>
+    <mergeCell ref="B20:I22"/>
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2047,720 +2141,678 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="2" spans="2:18" ht="22.8">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="53"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="47" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="47" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49" t="s">
+      <c r="M10" s="43"/>
+      <c r="N10" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="47">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="42">
         <v>1</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="43"/>
+      <c r="G11" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49">
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44">
         <v>1</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49" t="s">
+      <c r="M11" s="43"/>
+      <c r="N11" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="47">
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="42">
         <v>2</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49">
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44">
         <v>2</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49" t="s">
+      <c r="M12" s="43"/>
+      <c r="N12" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="47">
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="42">
         <v>3</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="49">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44">
         <v>3</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49" t="s">
+      <c r="M13" s="43"/>
+      <c r="N13" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="48"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="47">
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="42">
         <v>4</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44">
         <v>4</v>
       </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49" t="s">
+      <c r="M14" s="43"/>
+      <c r="N14" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="48"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="47">
-        <v>5</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="42">
+        <v>5</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49">
-        <v>5</v>
-      </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44">
+        <v>5</v>
+      </c>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="48"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="47">
-        <v>6</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="42">
+        <v>6</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49">
-        <v>6</v>
-      </c>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44">
+        <v>6</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="48"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47">
-        <v>7</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="42">
+        <v>7</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49">
-        <v>7</v>
-      </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44">
+        <v>7</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="48"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="47">
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42">
         <v>8</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44">
         <v>8</v>
       </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49" t="s">
+      <c r="M18" s="43"/>
+      <c r="N18" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="48"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="47">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="42">
         <v>9</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44">
         <v>9</v>
       </c>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49" t="s">
+      <c r="M19" s="43"/>
+      <c r="N19" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="48"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39">
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="30">
         <v>2</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="47"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="30">
         <v>3</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="59"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="37"/>
     </row>
     <row r="25" spans="2:18" ht="20.399999999999999">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="60">
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="13">
         <v>4</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="33"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="2:18" ht="20.399999999999999">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="60">
-        <v>5</v>
-      </c>
-      <c r="E26" s="61" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="13">
+        <v>5</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="33"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39">
-        <v>6</v>
-      </c>
-      <c r="E27" s="54" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="30">
+        <v>6</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="64"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="59"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="37"/>
     </row>
     <row r="30" spans="2:18" ht="20.399999999999999">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="60">
-        <v>7</v>
-      </c>
-      <c r="E30" s="61" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="13">
+        <v>7</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="33"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:R30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:R24"/>
-    <mergeCell ref="E25:R25"/>
-    <mergeCell ref="E26:R26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:R29"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:R22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:R11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:M12"/>
@@ -2775,6 +2827,48 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:R22"/>
+    <mergeCell ref="E30:R30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:R24"/>
+    <mergeCell ref="E25:R25"/>
+    <mergeCell ref="E26:R26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:R29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2783,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -2800,13 +2894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.950000000000003" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
@@ -2830,28 +2924,32 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" s="68">
+        <v>6</v>
+      </c>
+      <c r="E4" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2861,10 +2959,14 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="68">
+        <v>8</v>
+      </c>
+      <c r="E5" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" thickBot="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2874,10 +2976,14 @@
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" s="68">
+        <v>6</v>
+      </c>
+      <c r="E6" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2887,10 +2993,14 @@
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7" s="68">
+        <v>6</v>
+      </c>
+      <c r="E7" s="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" thickBot="1">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2900,10 +3010,14 @@
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" s="68">
+        <v>5</v>
+      </c>
+      <c r="E8" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2913,10 +3027,14 @@
       <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" s="68">
+        <v>7</v>
+      </c>
+      <c r="E9" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" thickBot="1">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2926,10 +3044,14 @@
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="68">
+        <v>7</v>
+      </c>
+      <c r="E10" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2939,10 +3061,14 @@
       <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="68">
+        <v>7</v>
+      </c>
+      <c r="E11" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.2" thickBot="1">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2952,10 +3078,14 @@
       <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12" s="68">
+        <v>7</v>
+      </c>
+      <c r="E12" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" thickBot="1">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2965,10 +3095,14 @@
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="68">
+        <v>6</v>
+      </c>
+      <c r="E13" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -2978,10 +3112,14 @@
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="68">
+        <v>7</v>
+      </c>
+      <c r="E14" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" thickBot="1">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -2991,10 +3129,14 @@
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="68">
+        <v>7</v>
+      </c>
+      <c r="E15" s="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -3004,10 +3146,14 @@
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="68">
+        <v>8</v>
+      </c>
+      <c r="E16" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" thickBot="1">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -3017,10 +3163,14 @@
       <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" s="68">
+        <v>5</v>
+      </c>
+      <c r="E17" s="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" thickBot="1">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -3030,10 +3180,14 @@
       <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="68">
+        <v>5</v>
+      </c>
+      <c r="E18" s="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" thickBot="1">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -3043,10 +3197,14 @@
       <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="68">
+        <v>5</v>
+      </c>
+      <c r="E19" s="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" thickBot="1">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -3056,10 +3214,14 @@
       <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="68">
+        <v>5</v>
+      </c>
+      <c r="E20" s="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" thickBot="1">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -3069,32 +3231,40 @@
       <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="68">
+        <v>5</v>
+      </c>
+      <c r="E21" s="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" thickBot="1">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="68">
+        <v>5</v>
+      </c>
+      <c r="E22" s="68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" thickBot="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" thickBot="1">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -3104,10 +3274,14 @@
       <c r="C24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="71">
+        <v>5</v>
+      </c>
+      <c r="E24" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" thickBot="1">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -3117,10 +3291,14 @@
       <c r="C25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="73">
+        <v>5</v>
+      </c>
+      <c r="E25" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" thickBot="1">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -3130,10 +3308,14 @@
       <c r="C26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="73">
+        <v>5</v>
+      </c>
+      <c r="E26" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -3143,10 +3325,14 @@
       <c r="C27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="73">
+        <v>5</v>
+      </c>
+      <c r="E27" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" thickBot="1">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -3156,8 +3342,12 @@
       <c r="C28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="73">
+        <v>5</v>
+      </c>
+      <c r="E28" s="74">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6">
@@ -3169,10 +3359,14 @@
       <c r="C29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29" s="11">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.2" thickBot="1">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -3182,10 +3376,14 @@
       <c r="C30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30" s="73">
+        <v>5</v>
+      </c>
+      <c r="E30" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" thickBot="1">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -3195,10 +3393,14 @@
       <c r="C31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31" s="73">
+        <v>6</v>
+      </c>
+      <c r="E31" s="74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.2" thickBot="1">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -3208,10 +3410,14 @@
       <c r="C32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32" s="73">
+        <v>7</v>
+      </c>
+      <c r="E32" s="74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.2" thickBot="1">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -3221,10 +3427,14 @@
       <c r="C33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="D33" s="73">
+        <v>6</v>
+      </c>
+      <c r="E33" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2" thickBot="1">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -3234,10 +3444,14 @@
       <c r="C34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34" s="73">
+        <v>6</v>
+      </c>
+      <c r="E34" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -3247,10 +3461,14 @@
       <c r="C35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35" s="73">
+        <v>8</v>
+      </c>
+      <c r="E35" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2" thickBot="1">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -3260,19 +3478,23 @@
       <c r="C36" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="D36" s="73">
+        <v>6</v>
+      </c>
+      <c r="E36" s="74">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6"/>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.2" thickBot="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
@@ -3282,10 +3504,14 @@
       <c r="C38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="D38" s="66">
+        <v>6</v>
+      </c>
+      <c r="E38" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" thickBot="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
@@ -3295,19 +3521,23 @@
       <c r="C39" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="69">
+        <v>5</v>
+      </c>
+      <c r="E39" s="70">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6"/>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.2" thickBot="1">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -3317,10 +3547,14 @@
       <c r="C41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="D41" s="66">
+        <v>7</v>
+      </c>
+      <c r="E41" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.2" thickBot="1">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -3330,10 +3564,14 @@
       <c r="C42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="D42" s="66">
+        <v>7</v>
+      </c>
+      <c r="E42" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -3343,10 +3581,14 @@
       <c r="C43" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="D43" s="66">
+        <v>8</v>
+      </c>
+      <c r="E43" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.2" thickBot="1">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -3356,10 +3598,14 @@
       <c r="C44" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="D44" s="66">
+        <v>5</v>
+      </c>
+      <c r="E44" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.2" thickBot="1">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -3369,10 +3615,14 @@
       <c r="C45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="D45" s="66">
+        <v>5</v>
+      </c>
+      <c r="E45" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.2" thickBot="1">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -3382,19 +3632,23 @@
       <c r="C46" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="D46" s="66">
+        <v>5</v>
+      </c>
+      <c r="E46" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.2" thickBot="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.2" thickBot="1">
       <c r="A48" s="6">
         <v>41</v>
       </c>
@@ -3404,10 +3658,14 @@
       <c r="C48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="D48" s="69">
+        <v>5</v>
+      </c>
+      <c r="E48" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.2" thickBot="1">
       <c r="A49" s="6">
         <v>42</v>
       </c>
@@ -3417,10 +3675,14 @@
       <c r="C49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="D49" s="66">
+        <v>5</v>
+      </c>
+      <c r="E49" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.2" thickBot="1">
       <c r="A50" s="6">
         <v>43</v>
       </c>
@@ -3430,10 +3692,14 @@
       <c r="C50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="D50" s="66">
+        <v>5</v>
+      </c>
+      <c r="E50" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.2" thickBot="1">
       <c r="A51" s="6">
         <v>44</v>
       </c>
@@ -3443,10 +3709,15 @@
       <c r="C51" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="D51" s="66">
+        <v>5</v>
+      </c>
+      <c r="E51" s="67">
+        <v>5</v>
+      </c>
+      <c r="F51" s="75"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.2" thickBot="1">
       <c r="A52" s="6">
         <v>45</v>
       </c>
@@ -3456,10 +3727,14 @@
       <c r="C52" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="D52" s="66">
+        <v>5</v>
+      </c>
+      <c r="E52" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.2" thickBot="1">
       <c r="A53" s="6">
         <v>46</v>
       </c>
@@ -3469,10 +3744,14 @@
       <c r="C53" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="D53" s="66">
+        <v>5</v>
+      </c>
+      <c r="E53" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.2" thickBot="1">
       <c r="A54" s="6">
         <v>47</v>
       </c>
@@ -3482,10 +3761,14 @@
       <c r="C54" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="D54" s="66">
+        <v>6</v>
+      </c>
+      <c r="E54" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.2" thickBot="1">
       <c r="A55" s="6">
         <v>48</v>
       </c>
@@ -3495,10 +3778,14 @@
       <c r="C55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="D55" s="66">
+        <v>7</v>
+      </c>
+      <c r="E55" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.2" thickBot="1">
       <c r="A56" s="6">
         <v>49</v>
       </c>
@@ -3508,10 +3795,14 @@
       <c r="C56" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="D56" s="66">
+        <v>6</v>
+      </c>
+      <c r="E56" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.2" thickBot="1">
       <c r="A57" s="6">
         <v>50</v>
       </c>
@@ -3521,10 +3812,14 @@
       <c r="C57" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="D57" s="66">
+        <v>6</v>
+      </c>
+      <c r="E57" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.2" thickBot="1">
       <c r="A58" s="6">
         <v>51</v>
       </c>
@@ -3534,19 +3829,23 @@
       <c r="C58" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="D58" s="66">
+        <v>8</v>
+      </c>
+      <c r="E58" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.2" thickBot="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="63"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.2" thickBot="1">
       <c r="A60" s="6">
         <v>52</v>
       </c>
@@ -3556,10 +3855,14 @@
       <c r="C60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="D60" s="69">
+        <v>7</v>
+      </c>
+      <c r="E60" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.2" thickBot="1">
       <c r="A61" s="6">
         <v>53</v>
       </c>
@@ -3569,10 +3872,14 @@
       <c r="C61" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="D61" s="66">
+        <v>7</v>
+      </c>
+      <c r="E61" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.2" thickBot="1">
       <c r="A62" s="6">
         <v>54</v>
       </c>
@@ -3582,10 +3889,14 @@
       <c r="C62" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="D62" s="66">
+        <v>7</v>
+      </c>
+      <c r="E62" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.2" thickBot="1">
       <c r="A63" s="6">
         <v>55</v>
       </c>
@@ -3595,10 +3906,14 @@
       <c r="C63" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="D63" s="66">
+        <v>6</v>
+      </c>
+      <c r="E63" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.2" thickBot="1">
       <c r="A64" s="6">
         <v>56</v>
       </c>
@@ -3608,10 +3923,14 @@
       <c r="C64" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="D64" s="66">
+        <v>7</v>
+      </c>
+      <c r="E64" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.2" thickBot="1">
       <c r="A65" s="6">
         <v>57</v>
       </c>
@@ -3621,10 +3940,14 @@
       <c r="C65" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="D65" s="66">
+        <v>7</v>
+      </c>
+      <c r="E65" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.2" thickBot="1">
       <c r="A66" s="6">
         <v>58</v>
       </c>
@@ -3634,10 +3957,14 @@
       <c r="C66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="D66" s="66">
+        <v>8</v>
+      </c>
+      <c r="E66" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.2" thickBot="1">
       <c r="A67" s="6">
         <v>59</v>
       </c>
@@ -3647,10 +3974,14 @@
       <c r="C67" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="D67" s="66">
+        <v>5</v>
+      </c>
+      <c r="E67" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.2" thickBot="1">
       <c r="A68" s="6">
         <v>60</v>
       </c>
@@ -3660,10 +3991,14 @@
       <c r="C68" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="D68" s="66">
+        <v>5</v>
+      </c>
+      <c r="E68" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.2" thickBot="1">
       <c r="A69" s="6">
         <v>61</v>
       </c>
@@ -3673,10 +4008,14 @@
       <c r="C69" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="D69" s="66">
+        <v>5</v>
+      </c>
+      <c r="E69" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.2" thickBot="1">
       <c r="A70" s="6">
         <v>62</v>
       </c>
@@ -3686,10 +4025,14 @@
       <c r="C70" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="D70" s="66">
+        <v>5</v>
+      </c>
+      <c r="E70" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.2" thickBot="1">
       <c r="A71" s="6">
         <v>63</v>
       </c>
@@ -3699,19 +4042,23 @@
       <c r="C71" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="D71" s="66">
+        <v>7</v>
+      </c>
+      <c r="E71" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.2" thickBot="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.2" thickBot="1">
       <c r="A73" s="6">
         <v>64</v>
       </c>
@@ -3721,10 +4068,14 @@
       <c r="C73" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="D73" s="69">
+        <v>7</v>
+      </c>
+      <c r="E73" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.2" thickBot="1">
       <c r="A74" s="6">
         <v>65</v>
       </c>
@@ -3734,10 +4085,14 @@
       <c r="C74" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="D74" s="66">
+        <v>7</v>
+      </c>
+      <c r="E74" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.2" thickBot="1">
       <c r="A75" s="6">
         <v>66</v>
       </c>
@@ -3747,8 +4102,12 @@
       <c r="C75" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="D75" s="66">
+        <v>7</v>
+      </c>
+      <c r="E75" s="67">
+        <v>8</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="6">
@@ -3760,8 +4119,12 @@
       <c r="C76" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="D76" s="11">
+        <v>7</v>
+      </c>
+      <c r="E76" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="6">
@@ -3773,8 +4136,12 @@
       <c r="C77" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="D77" s="11">
+        <v>7</v>
+      </c>
+      <c r="E77" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="6">
@@ -3786,8 +4153,12 @@
       <c r="C78" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="D78" s="11">
+        <v>9</v>
+      </c>
+      <c r="E78" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="6">
@@ -3799,8 +4170,12 @@
       <c r="C79" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="D79" s="11">
+        <v>8</v>
+      </c>
+      <c r="E79" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="6">
@@ -3812,10 +4187,14 @@
       <c r="C80" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="D80" s="11">
+        <v>6</v>
+      </c>
+      <c r="E80" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.2" thickBot="1">
       <c r="A81" s="6">
         <v>72</v>
       </c>
@@ -3825,99 +4204,146 @@
       <c r="C81" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="6">
+      <c r="D81" s="66">
+        <v>7</v>
+      </c>
+      <c r="E81" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="66">
+        <v>8</v>
+      </c>
+      <c r="E82" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A83" s="6">
         <v>73</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="6">
+      <c r="D83" s="66">
+        <v>7</v>
+      </c>
+      <c r="E83" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A84" s="6">
         <v>74</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="6">
+      <c r="D84" s="66">
+        <v>6</v>
+      </c>
+      <c r="E84" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A85" s="6">
         <v>75</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="6">
+      <c r="D85" s="66">
+        <v>7</v>
+      </c>
+      <c r="E85" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A86" s="6">
         <v>76</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="6">
+      <c r="D86" s="66">
+        <v>7</v>
+      </c>
+      <c r="E86" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A87" s="6">
         <v>77</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B87" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6">
-        <v>78</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="D87" s="66">
+        <v>8</v>
+      </c>
+      <c r="E87" s="67">
+        <v>8</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="6">
+        <v>78</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="11">
+        <v>7</v>
+      </c>
+      <c r="E88" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6">
         <v>79</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="B89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="D89" s="11">
+        <v>7</v>
+      </c>
+      <c r="E89" s="11">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3938,10 +4364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -3955,13 +4381,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.950000000000003" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
@@ -3985,28 +4411,32 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" s="66">
+        <v>6</v>
+      </c>
+      <c r="E4" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4016,10 +4446,14 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="66">
+        <v>7</v>
+      </c>
+      <c r="E5" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" thickBot="1">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4029,10 +4463,14 @@
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" s="66">
+        <v>7</v>
+      </c>
+      <c r="E6" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4042,10 +4480,14 @@
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7" s="66">
+        <v>8</v>
+      </c>
+      <c r="E7" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" thickBot="1">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -4055,879 +4497,1097 @@
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" s="66">
+        <v>5</v>
+      </c>
+      <c r="E8" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="D9" s="66">
+        <v>5</v>
+      </c>
+      <c r="E9" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" thickBot="1">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="D10" s="66">
+        <v>5</v>
+      </c>
+      <c r="E10" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1">
       <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="66">
+        <v>5</v>
+      </c>
+      <c r="E11" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6"/>
+      <c r="B12" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" thickBot="1">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="66">
+        <v>7</v>
+      </c>
+      <c r="E13" s="67">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1">
       <c r="A14" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
+        <v>97</v>
+      </c>
+      <c r="D14" s="66">
+        <v>7</v>
+      </c>
+      <c r="E14" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" thickBot="1">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="D15" s="66">
+        <v>6</v>
+      </c>
+      <c r="E15" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="D16" s="66">
+        <v>7</v>
+      </c>
+      <c r="E16" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" thickBot="1">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="D17" s="66">
+        <v>7</v>
+      </c>
+      <c r="E17" s="67">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="11">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="66">
+        <v>8</v>
+      </c>
+      <c r="E19" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="66">
+        <v>5</v>
+      </c>
+      <c r="E20" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="66">
+        <v>5</v>
+      </c>
+      <c r="E21" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="66">
+        <v>5</v>
+      </c>
+      <c r="E22" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="66">
+        <v>5</v>
+      </c>
+      <c r="E23" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="66">
+        <v>5</v>
+      </c>
+      <c r="E24" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="66">
+        <v>5</v>
+      </c>
+      <c r="E25" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6"/>
+      <c r="B26" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="66">
+        <v>5</v>
+      </c>
+      <c r="E27" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="66">
+        <v>5</v>
+      </c>
+      <c r="E28" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="66">
+        <v>5</v>
+      </c>
+      <c r="E29" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="66">
+        <v>5</v>
+      </c>
+      <c r="E31" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="66">
+        <v>5</v>
+      </c>
+      <c r="E32" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="66">
+        <v>5</v>
+      </c>
+      <c r="E33" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="66">
+        <v>5</v>
+      </c>
+      <c r="E34" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="66">
+        <v>5</v>
+      </c>
+      <c r="E35" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="66">
+        <v>5</v>
+      </c>
+      <c r="E36" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6"/>
+      <c r="B37" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="66">
+        <v>7</v>
+      </c>
+      <c r="E38" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="66">
+        <v>7</v>
+      </c>
+      <c r="E39" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="66">
+        <v>6</v>
+      </c>
+      <c r="E40" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="66">
+        <v>7</v>
+      </c>
+      <c r="E41" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="66">
+        <v>7</v>
+      </c>
+      <c r="E42" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A43" s="6">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="66">
+        <v>8</v>
+      </c>
+      <c r="E43" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A44" s="6">
+        <v>38</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="66">
+        <v>5</v>
+      </c>
+      <c r="E44" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A45" s="6">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="66">
+        <v>5</v>
+      </c>
+      <c r="E45" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A46" s="6">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="66">
+        <v>5</v>
+      </c>
+      <c r="E46" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A47" s="6">
+        <v>41</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="66">
+        <v>5</v>
+      </c>
+      <c r="E47" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6"/>
+      <c r="B48" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A49" s="6">
+        <v>42</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="66">
+        <v>7</v>
+      </c>
+      <c r="E49" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A50" s="6">
+        <v>43</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="66">
+        <v>8</v>
+      </c>
+      <c r="E50" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A51" s="6">
+        <v>44</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="66">
+        <v>5</v>
+      </c>
+      <c r="E51" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A52" s="6">
+        <v>45</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="66">
+        <v>5</v>
+      </c>
+      <c r="E52" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A53" s="6">
+        <v>46</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="66">
+        <v>5</v>
+      </c>
+      <c r="E53" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A54" s="6">
+        <v>47</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="66">
+        <v>5</v>
+      </c>
+      <c r="E54" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A55" s="6">
+        <v>48</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="69">
+        <v>7</v>
+      </c>
+      <c r="E55" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A56" s="6">
+        <v>49</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="66">
+        <v>5</v>
+      </c>
+      <c r="E56" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A57" s="6">
+        <v>50</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="66">
+        <v>7</v>
+      </c>
+      <c r="E57" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A58" s="6">
         <v>51</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="B58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="66">
+        <v>5</v>
+      </c>
+      <c r="E58" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A59" s="6">
         <v>52</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="B59" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="66">
+        <v>5</v>
+      </c>
+      <c r="E59" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A61" s="6">
         <v>53</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="B61" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="66">
+        <v>6</v>
+      </c>
+      <c r="E61" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A62" s="6">
         <v>54</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B62" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="66">
+        <v>7</v>
+      </c>
+      <c r="E62" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A63" s="6">
         <v>55</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="B63" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="66">
+        <v>7</v>
+      </c>
+      <c r="E63" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A64" s="6">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="B64" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="66">
+        <v>5</v>
+      </c>
+      <c r="E64" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.2" thickBot="1">
+      <c r="A65" s="6">
         <v>57</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6">
-        <v>26</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6">
-        <v>27</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6">
-        <v>28</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6">
-        <v>29</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6">
-        <v>30</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="6">
-        <v>31</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6"/>
-      <c r="B38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>32</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>33</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>34</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>35</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="6">
-        <v>36</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6">
-        <v>37</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="6">
-        <v>38</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="6">
-        <v>39</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6">
-        <v>40</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="6">
-        <v>41</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="6"/>
-      <c r="B49" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6">
-        <v>42</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6">
-        <v>43</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6">
-        <v>44</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="6">
-        <v>45</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="6">
-        <v>46</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="6">
-        <v>47</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="6">
-        <v>48</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6">
-        <v>49</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="6">
-        <v>50</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="6">
-        <v>51</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6">
-        <v>52</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6"/>
-      <c r="B61" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6">
-        <v>53</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="6">
-        <v>54</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6">
-        <v>55</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="6">
-        <v>56</v>
-      </c>
       <c r="B65" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="D65" s="66">
+        <v>5</v>
+      </c>
+      <c r="E65" s="67">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="D66" s="11">
+        <v>8</v>
+      </c>
+      <c r="E66" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+        <v>164</v>
+      </c>
+      <c r="D67" s="11">
+        <v>6</v>
+      </c>
+      <c r="E67" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="D68" s="11">
+        <v>5</v>
+      </c>
+      <c r="E68" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.2" thickBot="1">
       <c r="A69" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5">
+        <v>151</v>
+      </c>
+      <c r="D69" s="66">
+        <v>6</v>
+      </c>
+      <c r="E69" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.2" thickBot="1">
       <c r="A70" s="6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="D70" s="66">
+        <v>7</v>
+      </c>
+      <c r="E70" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.2" thickBot="1">
       <c r="A71" s="6">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="D71" s="66">
+        <v>7</v>
+      </c>
+      <c r="E71" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.2" thickBot="1">
       <c r="A72" s="6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="D72" s="66">
+        <v>8</v>
+      </c>
+      <c r="E72" s="67">
+        <v>8</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="D73" s="11">
+        <v>7</v>
+      </c>
+      <c r="E73" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="6">
-        <v>66</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="6">
-        <v>67</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="D74" s="11">
+        <v>7</v>
+      </c>
+      <c r="E74" s="11">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B60:E60"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
